--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H2">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.003058333333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N2">
-        <v>0.009175000000000001</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q2">
-        <v>0.0002637751333333334</v>
+        <v>1.210258403346</v>
       </c>
       <c r="R2">
-        <v>0.0023739762</v>
+        <v>10.892325630114</v>
       </c>
       <c r="S2">
-        <v>0.0001134234803787887</v>
+        <v>0.6541478484195091</v>
       </c>
       <c r="T2">
-        <v>0.0001134234803787887</v>
+        <v>0.6541478484195091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H3">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,39 +614,39 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.097779</v>
+        <v>0.205015</v>
       </c>
       <c r="N3">
-        <v>78.29333699999999</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q3">
-        <v>2.250881243192</v>
+        <v>0.00950736561</v>
       </c>
       <c r="R3">
-        <v>20.257931188728</v>
+        <v>0.08556629049</v>
       </c>
       <c r="S3">
-        <v>0.9678804112271815</v>
+        <v>0.005138756104254147</v>
       </c>
       <c r="T3">
-        <v>0.9678804112271815</v>
+        <v>0.005138756104254146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,46 +658,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08624800000000001</v>
+        <v>0.02396566666666667</v>
       </c>
       <c r="H4">
-        <v>0.258744</v>
+        <v>0.071897</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3407133954762367</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3407133954762367</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8630093333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N4">
-        <v>2.589028</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q4">
-        <v>0.07443282898133334</v>
+        <v>0.6254506722543334</v>
       </c>
       <c r="R4">
-        <v>0.669895460832</v>
+        <v>5.629056050289001</v>
       </c>
       <c r="S4">
-        <v>0.03200616529243973</v>
+        <v>0.3380577324780944</v>
       </c>
       <c r="T4">
-        <v>0.03200616529243973</v>
+        <v>0.3380577324780944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.02396566666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.071897</v>
+      </c>
+      <c r="I5">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="J5">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.205015</v>
+      </c>
+      <c r="N5">
+        <v>0.6150450000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.007794419102396499</v>
+      </c>
+      <c r="P5">
+        <v>0.007794419102396499</v>
+      </c>
+      <c r="Q5">
+        <v>0.004913321151666667</v>
+      </c>
+      <c r="R5">
+        <v>0.04421989036500001</v>
+      </c>
+      <c r="S5">
+        <v>0.002655662998142353</v>
+      </c>
+      <c r="T5">
+        <v>0.002655662998142353</v>
       </c>
     </row>
   </sheetData>
